--- a/Analysis/verification/continuity_test/mean_response_time/test_with_100_repetitions.xlsx
+++ b/Analysis/verification/continuity_test/mean_response_time/test_with_100_repetitions.xlsx
@@ -81,8 +81,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -130,7 +131,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,13 +144,47 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -178,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,7 +222,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,7 +292,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -263,7 +318,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -283,7 +338,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Continuity Test - Mean Response Time E[R]</a:t>
+              <a:t>Continuity Test - Bosses Mean Response Time E[R]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -292,8 +347,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.314428432499337"/>
-          <c:y val="0.0475827360073204"/>
+          <c:x val="0.314397778855053"/>
+          <c:y val="0.0477425259304454"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -311,10 +366,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0921267848459396"/>
-          <c:y val="0.124952337375124"/>
-          <c:w val="0.879625127094293"/>
-          <c:h val="0.671166018454968"/>
+          <c:x val="0.0921070027764312"/>
+          <c:y val="0.124923733984137"/>
+          <c:w val="0.879555771010533"/>
+          <c:h val="0.671064673581452"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1500,7 +1555,40 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ffff00"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1600,7 +1688,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffffff"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
@@ -1608,14 +1696,47 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="2"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1648,7 +1769,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.59610764121158</c:v>
+                    <c:v>0.596107641211579</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1660,7 +1781,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.59610764121158</c:v>
+                    <c:v>0.596107641211579</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1734,10 +1855,10 @@
             <c:idx val="0"/>
             <c:marker>
               <c:symbol val="triangle"/>
-              <c:size val="2"/>
+              <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="ff420e"/>
                 </a:solidFill>
               </c:spPr>
             </c:marker>
@@ -1847,11 +1968,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50334192"/>
-        <c:axId val="49171992"/>
+        <c:axId val="58005960"/>
+        <c:axId val="66181067"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50334192"/>
+        <c:axId val="58005960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1993,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Repetition ID</a:t>
+                  <a:t>Replicas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1907,13 +2028,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49171992"/>
+        <c:crossAx val="66181067"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49171992"/>
+        <c:axId val="66181067"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5"/>
@@ -1944,7 +2065,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Mean Response Time E[R] [seconds]</a:t>
+                  <a:t>Response Time [s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1979,7 +2100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50334192"/>
+        <c:crossAx val="58005960"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -2045,13 +2166,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>655200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>645480</xdr:colOff>
+      <xdr:colOff>644760</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2059,8 +2180,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15620040" y="882000"/>
-        <a:ext cx="8143560" cy="4720680"/>
+        <a:off x="19627560" y="882360"/>
+        <a:ext cx="8168400" cy="4719960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2080,13 +2201,17 @@
   </sheetPr>
   <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X14" colorId="64" zoomScale="350" zoomScaleNormal="350" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB17" activeCellId="0" sqref="AB17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X35" activeCellId="0" sqref="X35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2116,1179 +2241,1179 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="0" t="s">
+      <c r="I2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="5" t="n">
         <v>7.16811893781717</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="6" t="n">
         <f aca="false">AVERAGE(H3:H52)</f>
         <v>9.98836131691921</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="6" t="n">
         <f aca="false">STDEV(H3:H52)</f>
         <v>2.15060969866108</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="6" t="n">
         <f aca="false">CONFIDENCE(0.05,L3,COUNT(H3:H52) )</f>
-        <v>0.59610764121158</v>
+        <v>0.596107641211579</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="n">
         <v>195</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="5" t="n">
         <v>7.42087084305333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>244</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="5" t="n">
         <v>10.9639183124471</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="5" t="n">
         <v>10.7778984391536</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="5" t="n">
         <v>9.55537479935153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="5" t="n">
         <v>8.85130281882275</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>191</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="5" t="n">
         <v>9.93696702624136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="5" t="n">
         <v>7.03206186398627</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="0" t="n">
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="5" t="n">
         <v>10.8298752801702</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="5" t="n">
         <v>9.20104899260402</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>212</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="5" t="n">
         <v>12.9455321555575</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="D14" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>213</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="5" t="n">
         <v>15.3078637148793</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="5" t="n">
         <v>6.84742799723224</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="D16" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="n">
         <v>195</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="5" t="n">
         <v>9.1088144554718</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="D17" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="5" t="n">
         <v>7.94015511831146</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>203</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="5" t="n">
         <v>14.4998736004808</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="0" t="n">
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <v>238</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="5" t="n">
         <v>13.4576504355567</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5" t="n">
         <v>209</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="5" t="n">
         <v>10.4946877052593</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="0" t="n">
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="5" t="n">
         <v>11.1272922620385</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="5" t="n">
         <v>188</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="5" t="n">
         <v>8.54748872653989</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="5" t="n">
         <v>10.9656547451387</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="5" t="n">
         <v>8.50558152231202</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="5" t="n">
         <v>9.89128915227188</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="0" t="n">
+      <c r="E26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="5" t="n">
         <v>197</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="5" t="n">
         <v>13.8497777087695</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <v>206</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="5" t="n">
         <v>13.3860185682291</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="0" t="n">
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="5" t="n">
         <v>211</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="5" t="n">
         <v>7.76455446537109</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="0" t="n">
+      <c r="E29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="5" t="n">
         <v>11.2440674129337</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="0" t="n">
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="5" t="n">
         <v>193</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="5" t="n">
         <v>9.63118798711451</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="0" t="n">
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="5" t="n">
         <v>8.98246496769809</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="0" t="s">
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="0" t="n">
+      <c r="E32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="5" t="n">
         <v>190</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="5" t="n">
         <v>8.15175881047842</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="0" t="n">
+      <c r="E33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="5" t="n">
         <v>7.410726710081</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="0" t="n">
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="5" t="n">
         <v>216</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="5" t="n">
         <v>9.56344281068102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="0" t="n">
+      <c r="E35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="5" t="n">
         <v>194</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="5" t="n">
         <v>11.5057359231351</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="0" t="n">
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="5" t="n">
         <v>205</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="5" t="n">
         <v>13.5728746842683</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="0" t="s">
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="0" t="n">
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="5" t="n">
         <v>10.758075210137</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="0" t="s">
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="0" t="n">
+      <c r="E38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="5" t="n">
         <v>8.34640197394378</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="0" t="s">
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="0" t="n">
+      <c r="E39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="5" t="n">
         <v>172</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="5" t="n">
         <v>6.6370987429564</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="0" t="n">
+      <c r="E40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="5" t="n">
         <v>201</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="5" t="n">
         <v>10.857431032301</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="0" t="n">
+      <c r="E41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="5" t="n">
         <v>8.3642900029681</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="B42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="0" t="n">
+      <c r="E42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="5" t="n">
         <v>8.04066206546123</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="0" t="n">
+      <c r="E43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="5" t="n">
         <v>9.90319967653016</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="B44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="0" t="n">
+      <c r="E44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="5" t="n">
         <v>8.47555826692323</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="B45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="0" t="n">
+      <c r="E45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="5" t="n">
         <v>11.4946230834287</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="B46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="0" t="n">
+      <c r="E46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="5" t="n">
         <v>9.65356251673384</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="0" t="n">
+      <c r="E47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="5" t="n">
         <v>206</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="5" t="n">
         <v>13.3491491054893</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="B48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="0" t="n">
+      <c r="E48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="5" t="n">
         <v>7.69387208698033</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="B49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="0" t="n">
+      <c r="E49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="5" t="n">
         <v>8.91150468436905</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="B50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="0" t="n">
+      <c r="E50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="5" t="n">
         <v>9.441112677225</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="0" t="s">
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="0" t="n">
+      <c r="E51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="5" t="n">
         <v>218</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="5" t="n">
         <v>11.8406108860528</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="0" t="s">
+      <c r="B52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="0" t="n">
+      <c r="E52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="7" t="n">
         <v>232</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="7" t="n">
         <v>9.21155488100302</v>
       </c>
     </row>
@@ -3314,47 +3439,47 @@
       <c r="H57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K57" s="0" t="s">
+      <c r="K57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="0" t="s">
+      <c r="L57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M57" s="0" t="s">
+      <c r="M57" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="0" t="s">
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="0" t="n">
+      <c r="E58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58" s="5" t="n">
         <v>7.42535828067677</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58" s="6" t="n">
         <f aca="false">AVERAGE(H58:H107)</f>
         <v>10.3783302878405</v>
       </c>
-      <c r="L58" s="0" t="n">
+      <c r="L58" s="6" t="n">
         <f aca="false">STDEV(H58:H107)</f>
         <v>2.28233326395154</v>
       </c>
-      <c r="M58" s="0" t="n">
+      <c r="M58" s="6" t="n">
         <f aca="false">CONFIDENCE(0.05,L58,COUNT(H58:H107) )</f>
         <v>0.632618879790184</v>
       </c>
@@ -3363,1129 +3488,1129 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="B59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="0" t="n">
+      <c r="E59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="5" t="n">
         <v>195</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="H59" s="5" t="n">
         <v>7.6477498821041</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="B60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="0" t="n">
+      <c r="E60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="5" t="n">
         <v>242</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60" s="5" t="n">
         <v>11.3781433697116</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="0" t="s">
+      <c r="B61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="0" t="n">
+      <c r="E61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="H61" s="5" t="n">
         <v>11.1976274398156</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="0" t="n">
+      <c r="E62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62" s="5" t="n">
         <v>9.89254834357959</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="0" t="s">
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="0" t="n">
+      <c r="E63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63" s="5" t="n">
         <v>9.1525606740037</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="0" t="s">
+      <c r="B64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="0" t="n">
+      <c r="E64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="5" t="n">
         <v>191</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64" s="5" t="n">
         <v>10.2821860048047</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="B65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="0" t="n">
+      <c r="E65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65" s="5" t="n">
         <v>7.25653906601863</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="0" t="s">
+      <c r="B66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="0" t="n">
+      <c r="E66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66" s="5" t="n">
         <v>11.2157414443466</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="0" t="s">
+      <c r="B67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="0" t="n">
+      <c r="E67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67" s="5" t="n">
         <v>9.54582596605528</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="0" t="s">
+      <c r="B68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="0" t="n">
+      <c r="E68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="5" t="n">
         <v>212</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68" s="5" t="n">
         <v>13.6204109572415</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="0" t="n">
+      <c r="D69" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="5" t="n">
         <v>213</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69" s="5" t="n">
         <v>15.8552827807549</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="0" t="n">
+      <c r="E70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70" s="5" t="n">
         <v>7.06035925372678</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="B71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="0" t="n">
+      <c r="D71" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="5" t="n">
         <v>195</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71" s="5" t="n">
         <v>9.43172318922872</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="0" t="s">
+      <c r="B72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="0" t="n">
+      <c r="D72" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72" s="5" t="n">
         <v>8.22428939996667</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="B73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="0" t="n">
+      <c r="E73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="5" t="n">
         <v>203</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="H73" s="5" t="n">
         <v>15.2436149469862</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="0" t="s">
+      <c r="B74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="0" t="n">
+      <c r="E74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="5" t="n">
         <v>238</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74" s="5" t="n">
         <v>14.1503860730361</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="0" t="s">
+      <c r="B75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="0" t="n">
+      <c r="E75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="5" t="n">
         <v>209</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="H75" s="5" t="n">
         <v>10.950871311856</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="0" t="n">
+      <c r="E76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76" s="5" t="n">
         <v>11.662227301123</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="0" t="s">
+      <c r="B77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="0" t="n">
+      <c r="E77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="5" t="n">
         <v>188</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="H77" s="5" t="n">
         <v>8.82185767321223</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="0" t="s">
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="0" t="n">
+      <c r="E78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="H78" s="5" t="n">
         <v>11.3697814906704</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="0" t="s">
+      <c r="B79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="0" t="n">
+      <c r="E79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79" s="5" t="n">
         <v>8.78677254784372</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="0" t="s">
+      <c r="B80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="0" t="n">
+      <c r="E80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80" s="5" t="n">
         <v>10.3155009950344</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="B81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="0" t="n">
+      <c r="E81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="5" t="n">
         <v>197</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="H81" s="5" t="n">
         <v>14.5227187587492</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="0" t="s">
+      <c r="B82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="0" t="n">
+      <c r="E82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="5" t="n">
         <v>206</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82" s="5" t="n">
         <v>13.9616105327573</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="B83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="0" t="n">
+      <c r="E83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="5" t="n">
         <v>211</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83" s="5" t="n">
         <v>8.02765053553317</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="B84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="0" t="n">
+      <c r="E84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H84" s="5" t="n">
         <v>11.7190824400427</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="0" t="s">
+      <c r="B85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="0" t="n">
+      <c r="E85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="5" t="n">
         <v>193</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85" s="5" t="n">
         <v>10.0063319525358</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="0" t="s">
+      <c r="B86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="0" t="n">
+      <c r="E86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86" s="5" t="n">
         <v>9.31039644089857</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="0" t="s">
+      <c r="B87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="0" t="n">
+      <c r="E87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="5" t="n">
         <v>190</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87" s="5" t="n">
         <v>8.39944442135263</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="0" t="s">
+      <c r="B88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="0" t="n">
+      <c r="E88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88" s="5" t="n">
         <v>7.6676403403555</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="0" t="s">
+      <c r="B89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="0" t="n">
+      <c r="E89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="5" t="n">
         <v>216</v>
       </c>
-      <c r="H89" s="0" t="n">
+      <c r="H89" s="5" t="n">
         <v>9.99276461034352</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="B90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="0" t="n">
+      <c r="E90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="5" t="n">
         <v>194</v>
       </c>
-      <c r="H90" s="0" t="n">
+      <c r="H90" s="5" t="n">
         <v>11.9408253553809</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="B91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="0" t="n">
+      <c r="E91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="5" t="n">
         <v>203</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91" s="5" t="n">
         <v>14.0104493287153</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="0" t="s">
+      <c r="B92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="0" t="n">
+      <c r="E92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="H92" s="5" t="n">
         <v>11.1769034481349</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="0" t="s">
+      <c r="B93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="0" t="n">
+      <c r="E93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="H93" s="5" t="n">
         <v>8.60981390075297</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="0" t="s">
+      <c r="B94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="0" t="n">
+      <c r="E94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="5" t="n">
         <v>172</v>
       </c>
-      <c r="H94" s="0" t="n">
+      <c r="H94" s="5" t="n">
         <v>6.83093963715116</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="0" t="s">
+      <c r="B95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="0" t="n">
+      <c r="E95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="H95" s="5" t="n">
         <v>11.2406572503115</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="0" t="s">
+      <c r="B96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="0" t="n">
+      <c r="E96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H96" s="5" t="n">
         <v>8.63106359142143</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="0" t="s">
+      <c r="B97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="0" t="n">
+      <c r="E97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="H97" s="5" t="n">
         <v>8.32606440198776</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="0" t="s">
+      <c r="B98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="0" t="n">
+      <c r="E98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="H98" s="0" t="n">
+      <c r="H98" s="5" t="n">
         <v>10.2916987610963</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="0" t="s">
+      <c r="B99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="0" t="n">
+      <c r="E99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H99" s="0" t="n">
+      <c r="H99" s="5" t="n">
         <v>8.77977897364242</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="0" t="s">
+      <c r="B100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="0" t="n">
+      <c r="E100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="H100" s="0" t="n">
+      <c r="H100" s="5" t="n">
         <v>12.0252131957616</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="0" t="s">
+      <c r="B101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="0" t="n">
+      <c r="E101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101" s="5" t="n">
         <v>9.96460146766869</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="0" t="s">
+      <c r="B102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="0" t="n">
+      <c r="E102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="5" t="n">
         <v>206</v>
       </c>
-      <c r="H102" s="0" t="n">
+      <c r="H102" s="5" t="n">
         <v>14.1108766923578</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="0" t="s">
+      <c r="B103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="E103" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="0" t="n">
+      <c r="E103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="H103" s="0" t="n">
+      <c r="H103" s="5" t="n">
         <v>7.92979829585465</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="0" t="s">
+      <c r="B104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="0" t="n">
+      <c r="E104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="H104" s="0" t="n">
+      <c r="H104" s="5" t="n">
         <v>9.22678381650571</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="0" t="s">
+      <c r="B105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="0" t="n">
+      <c r="E105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="H105" s="0" t="n">
+      <c r="H105" s="5" t="n">
         <v>9.79822706594804</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="0" t="s">
+      <c r="B106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="E106" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="0" t="n">
+      <c r="E106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="5" t="n">
         <v>218</v>
       </c>
-      <c r="H106" s="0" t="n">
+      <c r="H106" s="5" t="n">
         <v>12.3591989513615</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="0" t="s">
+      <c r="B107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="E107" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="0" t="n">
+      <c r="E107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="7" t="n">
         <v>232</v>
       </c>
-      <c r="H107" s="0" t="n">
+      <c r="H107" s="7" t="n">
         <v>9.56862183360819</v>
       </c>
     </row>
@@ -4511,47 +4636,47 @@
       <c r="H112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K112" s="0" t="s">
+      <c r="K112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L112" s="0" t="s">
+      <c r="L112" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M112" s="0" t="s">
+      <c r="M112" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="0" t="s">
+      <c r="B113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E113" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="0" t="n">
+      <c r="E113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H113" s="0" t="n">
+      <c r="H113" s="5" t="n">
         <v>7.6984289607899</v>
       </c>
-      <c r="K113" s="0" t="n">
+      <c r="K113" s="6" t="n">
         <f aca="false">AVERAGE(H113:H162)</f>
         <v>10.7888836126525</v>
       </c>
-      <c r="L113" s="0" t="n">
+      <c r="L113" s="6" t="n">
         <f aca="false">STDEV(H113:H162)</f>
         <v>2.42471750897266</v>
       </c>
-      <c r="M113" s="0" t="n">
+      <c r="M113" s="6" t="n">
         <f aca="false">CONFIDENCE(0.05,L113,COUNT(H113:H162) )</f>
         <v>0.672085053730566</v>
       </c>
@@ -4560,1129 +4685,1129 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="B114" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E114" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="0" t="n">
+      <c r="E114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="5" t="n">
         <v>195</v>
       </c>
-      <c r="H114" s="0" t="n">
+      <c r="H114" s="5" t="n">
         <v>7.89070111632821</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="B115" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E115" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" s="0" t="n">
+      <c r="E115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="5" t="n">
         <v>242</v>
       </c>
-      <c r="H115" s="0" t="n">
+      <c r="H115" s="5" t="n">
         <v>11.9027229766388</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="0" t="s">
+      <c r="B116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" s="0" t="n">
+      <c r="E116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="H116" s="0" t="n">
+      <c r="H116" s="5" t="n">
         <v>11.6186192369792</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="0" t="s">
+      <c r="B117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E117" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="0" t="n">
+      <c r="E117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="H117" s="0" t="n">
+      <c r="H117" s="5" t="n">
         <v>10.2317551401102</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="0" t="s">
+      <c r="B118" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E118" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="0" t="n">
+      <c r="E118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="H118" s="0" t="n">
+      <c r="H118" s="5" t="n">
         <v>9.50832651554021</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="0" t="s">
+      <c r="B119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E119" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="0" t="n">
+      <c r="E119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="5" t="n">
         <v>190</v>
       </c>
-      <c r="H119" s="0" t="n">
+      <c r="H119" s="5" t="n">
         <v>10.6212810202432</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="0" t="s">
+      <c r="B120" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E120" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="0" t="n">
+      <c r="E120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="H120" s="0" t="n">
+      <c r="H120" s="5" t="n">
         <v>7.48185349426127</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="0" t="s">
+      <c r="B121" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E121" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="0" t="n">
+      <c r="E121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="H121" s="0" t="n">
+      <c r="H121" s="5" t="n">
         <v>11.6125490314118</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="0" t="s">
+      <c r="B122" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E122" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="0" t="n">
+      <c r="E122" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H122" s="0" t="n">
+      <c r="H122" s="5" t="n">
         <v>9.93482030090606</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="0" t="s">
+      <c r="B123" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="0" t="n">
+      <c r="E123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="5" t="n">
         <v>212</v>
       </c>
-      <c r="H123" s="0" t="n">
+      <c r="H123" s="5" t="n">
         <v>14.3549586983217</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="0" t="s">
+      <c r="B124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="0" t="n">
+      <c r="D124" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="5" t="n">
         <v>213</v>
       </c>
-      <c r="H124" s="0" t="n">
+      <c r="H124" s="5" t="n">
         <v>16.4255739048376</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="0" t="s">
+      <c r="B125" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="E125" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="0" t="n">
+      <c r="E125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="H125" s="0" t="n">
+      <c r="H125" s="5" t="n">
         <v>7.27343499585628</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="0" t="s">
+      <c r="B126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D126" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="0" t="n">
+      <c r="D126" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="5" t="n">
         <v>195</v>
       </c>
-      <c r="H126" s="0" t="n">
+      <c r="H126" s="5" t="n">
         <v>9.76041788353846</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="0" t="s">
+      <c r="B127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D127" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="0" t="n">
+      <c r="D127" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="H127" s="0" t="n">
+      <c r="H127" s="5" t="n">
         <v>8.53550385192708</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="0" t="s">
+      <c r="B128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="E128" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="0" t="n">
+      <c r="E128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="5" t="n">
         <v>203</v>
       </c>
-      <c r="H128" s="0" t="n">
+      <c r="H128" s="5" t="n">
         <v>15.9936601649</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="0" t="s">
+      <c r="B129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="E129" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="0" t="n">
+      <c r="E129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="5" t="n">
         <v>238</v>
       </c>
-      <c r="H129" s="0" t="n">
+      <c r="H129" s="5" t="n">
         <v>14.8457952438118</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="0" t="s">
+      <c r="B130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="E130" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" s="0" t="n">
+      <c r="E130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="5" t="n">
         <v>209</v>
       </c>
-      <c r="H130" s="0" t="n">
+      <c r="H130" s="5" t="n">
         <v>11.4139978964804</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="0" t="s">
+      <c r="B131" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E131" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="0" t="n">
+      <c r="E131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H131" s="0" t="n">
+      <c r="H131" s="5" t="n">
         <v>12.2023914099395</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="0" t="s">
+      <c r="B132" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="E132" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="0" t="n">
+      <c r="E132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="5" t="n">
         <v>188</v>
       </c>
-      <c r="H132" s="0" t="n">
+      <c r="H132" s="5" t="n">
         <v>9.11507018132021</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="0" t="s">
+      <c r="B133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E133" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" s="0" t="n">
+      <c r="E133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="H133" s="0" t="n">
+      <c r="H133" s="5" t="n">
         <v>11.7751991809151</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="0" t="s">
+      <c r="B134" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="E134" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" s="0" t="n">
+      <c r="E134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="H134" s="0" t="n">
+      <c r="H134" s="5" t="n">
         <v>9.07523866653716</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="0" t="s">
+      <c r="B135" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="E135" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" s="0" t="n">
+      <c r="E135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="H135" s="0" t="n">
+      <c r="H135" s="5" t="n">
         <v>10.7866767619422</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="0" t="s">
+      <c r="B136" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="E136" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="0" t="n">
+      <c r="E136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="5" t="n">
         <v>197</v>
       </c>
-      <c r="H136" s="0" t="n">
+      <c r="H136" s="5" t="n">
         <v>15.1957422945086</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="0" t="s">
+      <c r="B137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="E137" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" s="0" t="n">
+      <c r="E137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="5" t="n">
         <v>206</v>
       </c>
-      <c r="H137" s="0" t="n">
+      <c r="H137" s="5" t="n">
         <v>14.5633965639107</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="0" t="s">
+      <c r="B138" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="E138" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" s="0" t="n">
+      <c r="E138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="5" t="n">
         <v>211</v>
       </c>
-      <c r="H138" s="0" t="n">
+      <c r="H138" s="5" t="n">
         <v>8.29714986031659</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="0" t="s">
+      <c r="B139" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="E139" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" s="0" t="n">
+      <c r="E139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="H139" s="0" t="n">
+      <c r="H139" s="5" t="n">
         <v>12.2666202911362</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="0" t="s">
+      <c r="B140" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="E140" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="0" t="n">
+      <c r="E140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" s="5" t="n">
         <v>193</v>
       </c>
-      <c r="H140" s="0" t="n">
+      <c r="H140" s="5" t="n">
         <v>10.3848961631181</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="0" t="s">
+      <c r="B141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="E141" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="0" t="n">
+      <c r="E141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="H141" s="0" t="n">
+      <c r="H141" s="5" t="n">
         <v>9.64817094445571</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="0" t="s">
+      <c r="B142" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="E142" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="0" t="n">
+      <c r="E142" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="5" t="n">
         <v>190</v>
       </c>
-      <c r="H142" s="0" t="n">
+      <c r="H142" s="5" t="n">
         <v>8.64719754557947</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="0" t="s">
+      <c r="B143" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D143" s="0" t="n">
+      <c r="D143" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="E143" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="0" t="n">
+      <c r="E143" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H143" s="0" t="n">
+      <c r="H143" s="5" t="n">
         <v>7.942087605821</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="0" t="s">
+      <c r="B144" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="E144" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" s="0" t="n">
+      <c r="E144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="5" t="n">
         <v>216</v>
       </c>
-      <c r="H144" s="0" t="n">
+      <c r="H144" s="5" t="n">
         <v>10.4315869063394</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="0" t="s">
+      <c r="B145" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="E145" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="0" t="n">
+      <c r="E145" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="5" t="n">
         <v>194</v>
       </c>
-      <c r="H145" s="0" t="n">
+      <c r="H145" s="5" t="n">
         <v>12.4113885055309</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" s="0" t="s">
+      <c r="B146" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="E146" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="0" t="n">
+      <c r="E146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="5" t="n">
         <v>203</v>
       </c>
-      <c r="H146" s="0" t="n">
+      <c r="H146" s="5" t="n">
         <v>14.5910365579921</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="0" t="s">
+      <c r="B147" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="E147" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="0" t="n">
+      <c r="E147" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="H147" s="0" t="n">
+      <c r="H147" s="5" t="n">
         <v>11.6041274897556</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" s="0" t="s">
+      <c r="B148" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="E148" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="0" t="n">
+      <c r="E148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="H148" s="0" t="n">
+      <c r="H148" s="5" t="n">
         <v>8.87813274580324</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="0" t="s">
+      <c r="B149" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="E149" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" s="0" t="n">
+      <c r="E149" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" s="5" t="n">
         <v>172</v>
       </c>
-      <c r="H149" s="0" t="n">
+      <c r="H149" s="5" t="n">
         <v>7.03357780536686</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="0" t="s">
+      <c r="B150" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="E150" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" s="0" t="n">
+      <c r="E150" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="H150" s="0" t="n">
+      <c r="H150" s="5" t="n">
         <v>11.6922646676055</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="0" t="s">
+      <c r="B151" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D151" s="0" t="n">
+      <c r="D151" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="E151" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" s="0" t="n">
+      <c r="E151" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="H151" s="0" t="n">
+      <c r="H151" s="5" t="n">
         <v>8.90915019766952</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="0" t="s">
+      <c r="B152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="E152" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" s="0" t="n">
+      <c r="E152" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="H152" s="0" t="n">
+      <c r="H152" s="5" t="n">
         <v>8.62417559720408</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="0" t="s">
+      <c r="B153" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="E153" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" s="0" t="n">
+      <c r="E153" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="H153" s="0" t="n">
+      <c r="H153" s="5" t="n">
         <v>10.7030143436254</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="0" t="s">
+      <c r="B154" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D154" s="0" t="n">
+      <c r="D154" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="E154" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" s="0" t="n">
+      <c r="E154" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H154" s="0" t="n">
+      <c r="H154" s="5" t="n">
         <v>9.09459067997929</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="0" t="s">
+      <c r="B155" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E155" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" s="0" t="n">
+      <c r="E155" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="H155" s="0" t="n">
+      <c r="H155" s="5" t="n">
         <v>12.5620492570659</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="0" t="s">
+      <c r="B156" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="E156" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" s="0" t="n">
+      <c r="E156" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="H156" s="0" t="n">
+      <c r="H156" s="5" t="n">
         <v>10.2854679343126</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="0" t="s">
+      <c r="B157" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="E157" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" s="0" t="n">
+      <c r="E157" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" s="5" t="n">
         <v>206</v>
       </c>
-      <c r="H157" s="0" t="n">
+      <c r="H157" s="5" t="n">
         <v>14.924580900617</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="0" t="s">
+      <c r="B158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="E158" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" s="0" t="n">
+      <c r="E158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="H158" s="0" t="n">
+      <c r="H158" s="5" t="n">
         <v>8.16873303051038</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="0" t="s">
+      <c r="B159" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="E159" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" s="0" t="n">
+      <c r="E159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="H159" s="0" t="n">
+      <c r="H159" s="5" t="n">
         <v>9.54360361715667</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="0" t="s">
+      <c r="B160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="E160" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" s="0" t="n">
+      <c r="E160" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="H160" s="0" t="n">
+      <c r="H160" s="5" t="n">
         <v>10.1588332130005</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="0" t="s">
+      <c r="B161" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D161" s="0" t="n">
+      <c r="D161" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="E161" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="0" t="n">
+      <c r="E161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" s="5" t="n">
         <v>218</v>
       </c>
-      <c r="H161" s="0" t="n">
+      <c r="H161" s="5" t="n">
         <v>12.8944879977569</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="0" t="s">
+      <c r="B162" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D162" s="0" t="n">
+      <c r="D162" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="E162" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="0" t="n">
+      <c r="E162" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" s="7" t="n">
         <v>232</v>
       </c>
-      <c r="H162" s="0" t="n">
+      <c r="H162" s="7" t="n">
         <v>9.92914128294828</v>
       </c>
     </row>
